--- a/Variantenbildung_vorlaeufig.xlsx
+++ b/Variantenbildung_vorlaeufig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42B61CCF-A9DD-4C19-A6AA-330AB6276784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DC2997-A744-40A1-B10D-5D97D5DE2599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{41A27454-0F97-40D3-8ED4-A8E588940F79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41A27454-0F97-40D3-8ED4-A8E588940F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Programmiersprache</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Spring</t>
+  </si>
+  <si>
+    <t>&gt; Java weil Vorlieben</t>
+  </si>
+  <si>
+    <t>&gt; CSS + Bootstrap weil bereits bekannt</t>
+  </si>
+  <si>
+    <t>&gt; .JSON weil am vielseitigsten</t>
+  </si>
+  <si>
+    <t>&gt; JavaScript weil am besten bekannt</t>
   </si>
 </sst>
 </file>
@@ -110,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +135,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -253,13 +271,14 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,9 +288,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -586,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD412D68-9503-497E-A9FE-2F61CFDCAE34}">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,68 +616,80 @@
     <col min="2" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
